--- a/biology/Neurosciences/Laurent_Cognet/Laurent_Cognet.xlsx
+++ b/biology/Neurosciences/Laurent_Cognet/Laurent_Cognet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Laurent Cognet, né en 1971, est un physicien français (directeur de recherche au CNRS) dont le domaine de recherche concerne les nanosciences, l’optique et la bio-imagerie. Il invente et met en œuvre des techniques de microscopies qui permettent de localiser et de suivre le déplacement de molécules et nano-objets uniques dans les tissus biologiques vivants. Il est le frère du réalisateur Christophe Cognet.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Laurent Cognet a obtenu son diplôme d’ingénieur de SupOptique et son DEA d’optique photonique en 1995 puis sa thèse intitulée « miroirs atomiques : diffraction en incidence rasante et rugosité d'un miroir magnétique »[1] en 1999 à l’Institut d’optique de Paris Sud Saclay sous la direction d'Alain Aspect, avant d’effectuer un post-doctorat en biophysique à l’université de Leiden aux Pays-Bas. Il reçoit une bourse post-doctorale Marie Skłodowska-Curie de la commission européenne et intègre le CNRS en 2000 comme chargé recherche ; en 2005 il reçoit la médaille de bronze du CNRS. Il soutient son habilitation à diriger les recherches en 2008. Il est chercheur invité à Fulbright à Rice university à Houston en 2006-2007 et séjourne au Los Alamos National Laboratory en 2015. Depuis 2005, il enseigne à l’université de Bordeaux.
-Les travaux scientifiques de Laurent Cognet ont donné lieu à une centaine de publications indexées dans google scholar[2], Pubmed et Arxir en raison de leur pluridisciplinarité entre la physique la chimie et la biologie. Ils concernent principalement l’utilisation de la nanophysique et de la microscopie de superrésolution pour étudier les propriétés optiques des nano-objets et permettre la détection d’une seule molécule au sein du vivant afin d'en décrire les mécanismes à l’échelle du nanomètre[3]. il a vulgarisé son travail de recherche lors du TedX-université de Bordeaux intitulé Lumière 2.0[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Laurent Cognet a obtenu son diplôme d’ingénieur de SupOptique et son DEA d’optique photonique en 1995 puis sa thèse intitulée « miroirs atomiques : diffraction en incidence rasante et rugosité d'un miroir magnétique » en 1999 à l’Institut d’optique de Paris Sud Saclay sous la direction d'Alain Aspect, avant d’effectuer un post-doctorat en biophysique à l’université de Leiden aux Pays-Bas. Il reçoit une bourse post-doctorale Marie Skłodowska-Curie de la commission européenne et intègre le CNRS en 2000 comme chargé recherche ; en 2005 il reçoit la médaille de bronze du CNRS. Il soutient son habilitation à diriger les recherches en 2008. Il est chercheur invité à Fulbright à Rice university à Houston en 2006-2007 et séjourne au Los Alamos National Laboratory en 2015. Depuis 2005, il enseigne à l’université de Bordeaux.
+Les travaux scientifiques de Laurent Cognet ont donné lieu à une centaine de publications indexées dans google scholar, Pubmed et Arxir en raison de leur pluridisciplinarité entre la physique la chimie et la biologie. Ils concernent principalement l’utilisation de la nanophysique et de la microscopie de superrésolution pour étudier les propriétés optiques des nano-objets et permettre la détection d’une seule molécule au sein du vivant afin d'en décrire les mécanismes à l’échelle du nanomètre. il a vulgarisé son travail de recherche lors du TedX-université de Bordeaux intitulé Lumière 2.0.
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>travaux scientifiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Multidisciplinaires et transversaux, ces travaux de recherches s’articulent autour de la physique, de la chime et de la biologie, en particulier les neurosciences :
-Le développement de nouvelles de méthodes optiques pour explorer les propriétés optiques et chimiques des nano-objets (de taille inférieure au µm) de toutes natures (protéines, molécules organiques, nanotubes de carbone, nanocristaux des semi-conducteurs, nanoparticules métalliques). Cela a participé au concept de l’imagerie photothermique hétérodyne et de la microscopie de super-résolution[5].
-L’application des méthodes de détection de molécules uniques dans les milieux biologiques. Ces travaux ont permis de révéler le mouvement de protéines à la surface des synapses des neurones. Ces travaux ont permis des avancées conceptuelles dans le fonctionnement du cerveau[6].
+Le développement de nouvelles de méthodes optiques pour explorer les propriétés optiques et chimiques des nano-objets (de taille inférieure au µm) de toutes natures (protéines, molécules organiques, nanotubes de carbone, nanocristaux des semi-conducteurs, nanoparticules métalliques). Cela a participé au concept de l’imagerie photothermique hétérodyne et de la microscopie de super-résolution.
+L’application des méthodes de détection de molécules uniques dans les milieux biologiques. Ces travaux ont permis de révéler le mouvement de protéines à la surface des synapses des neurones. Ces travaux ont permis des avancées conceptuelles dans le fonctionnement du cerveau.
 Le troisième axe concerne les propriétés des nanotubes et en particulier la compréhension de leurs interactions avec la lumière et avec leur environnement physico-chimique. En collaboration avec des chercheurs de Rice University, il démontre leur capacité à se mouvoir dans des milieux encombrés par reptation, selon de principe énoncé par Pierre Gilles de Gennes en 1971. Ces travaux se poursuivent par le développement de nouvelles sondes d’exploration du vivant à l’échelle moléculaire.
 </t>
         </is>
@@ -577,7 +593,9 @@
           <t>Responsabilités institutionnelles et éditoriales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Membre de plusieurs instances de l’université de Bordeaux, il est également expert auprès de l’ERC, de l’ANR.
 </t>
@@ -608,11 +626,13 @@
           <t>prix scientifiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">2011   Grand Prix thématique Pierre Faurre de l’Académie des Sciences
 2011   Prix Découvertes de l’Académie Nationale des Sciences, Belles-lettres et Arts de Bordeaux
-2010   Prix Jean Jerphagnon d’innovation scientifique[7]
+2010   Prix Jean Jerphagnon d’innovation scientifique
 2005   Médaille de Bronze du CNRS
 </t>
         </is>
